--- a/data/income_statement/2digits/size/69_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/69_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>69-Legal and accounting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>69-Legal and accounting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,251 +841,286 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>244635.09932</v>
+        <v>228305.5211</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>298611.53735</v>
+        <v>274437.46457</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>350002.40691</v>
+        <v>329904.70279</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>404204.16274</v>
+        <v>385752.01911</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>388172.7076</v>
+        <v>351749.8694</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>392218.4264</v>
+        <v>385456.3290499999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>513512.62538</v>
+        <v>497830.12266</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>667381.32601</v>
+        <v>657107.6641700001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>805989.60789</v>
+        <v>792086.5309400001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>602377.1395599999</v>
+        <v>623029.6656800001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>844502.10431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>818672.8043600001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1168649.026</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>208793.73831</v>
+        <v>193952.89181</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>263035.14048</v>
+        <v>240138.74235</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>301407.84461</v>
+        <v>282463.79554</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>342521.01741</v>
+        <v>328798.17899</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>349288.31287</v>
+        <v>319243.01352</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>361567.7256</v>
+        <v>350789.60317</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>435344.32587</v>
+        <v>421399.6897999999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>565524.35442</v>
+        <v>557811.18936</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>678578.83987</v>
+        <v>670033.13726</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>540604.97616</v>
+        <v>562604.0408600001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>723942.1113999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>701241.2638600001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>995049.833</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>33056.67373</v>
+        <v>31910.79141</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>32300.22387</v>
+        <v>31273.47709</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>44082.80966</v>
+        <v>43245.29641</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>55626.3638</v>
+        <v>51986.77361</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>32846.41354</v>
+        <v>28080.48501</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>27370.84577</v>
+        <v>26932.99881</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>74143.64373000001</v>
+        <v>68055.76638000002</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>86096.61092000001</v>
+        <v>84319.71639</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>111977.99922</v>
+        <v>107267.07046</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>50720.3242</v>
+        <v>50712.82175</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>100423.86696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>100141.77355</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>150069.02</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2784.68728</v>
+        <v>2441.83788</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3276.173</v>
+        <v>3025.24513</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>4511.752640000001</v>
+        <v>4195.61084</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>6056.78153</v>
+        <v>4967.06651</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>6037.98119</v>
+        <v>4426.37087</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>3279.85503</v>
+        <v>7733.72707</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4024.65578</v>
+        <v>8374.66648</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>15760.36067</v>
+        <v>14976.75842</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>15432.7688</v>
+        <v>14786.32322</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>11051.8392</v>
+        <v>9712.80307</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>20136.12595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17289.76695</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>23530.173</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2574.5686</v>
+        <v>2492.67617</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2623.8606</v>
+        <v>2786.38379</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6155.249859999999</v>
+        <v>4135.81819</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3329.06555</v>
+        <v>3168.83851</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3537.46232</v>
+        <v>3440.82571</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4695.97193</v>
+        <v>4774.71099</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6491.711969999999</v>
+        <v>6463.1405</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>9140.019980000001</v>
+        <v>9543.083550000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>10393.54471</v>
+        <v>10951.61748</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>9087.021070000001</v>
+        <v>11109.45155</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>10483.3378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13407.19217</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>19622.104</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2129.2542</v>
+        <v>2069.10977</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2310.55311</v>
+        <v>2474.35803</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5818.79071</v>
+        <v>3799.35904</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3316.20365</v>
+        <v>3156.18661</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3477.29089</v>
+        <v>3411.55559</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4665.082530000001</v>
+        <v>4700.77158</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6363.311269999999</v>
+        <v>6397.844099999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>8932.052679999999</v>
+        <v>9401.592460000002</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>9846.08857</v>
+        <v>10475.09479</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>9084.92359</v>
+        <v>11109.36255</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>10467.02382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13395.51379</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>19240.287</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>444.957</v>
+        <v>423.5664</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>312.02576</v>
@@ -1193,22 +1129,22 @@
         <v>336.32238</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>12.42957</v>
+        <v>12.21957</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>59.07312</v>
+        <v>29.27012</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>23.71359</v>
+        <v>73.93941000000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>82.53816999999999</v>
+        <v>64.79287000000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>107.97621</v>
+        <v>41.5</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>236.08668</v>
+        <v>221.56444</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>0</v>
@@ -1216,17 +1152,22 @@
       <c r="M11" s="48" t="n">
         <v>5.862</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>70.59999999999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>0.3574</v>
+        <v>0</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1.28173</v>
+        <v>0</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>0.13677</v>
@@ -1235,112 +1176,127 @@
         <v>0.43233</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1.09831</v>
+        <v>0</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7.17581</v>
+        <v>0</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>45.86253</v>
+        <v>0.5035299999999999</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>99.99109</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>311.36946</v>
+        <v>254.95825</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2.09748</v>
+        <v>0.089</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>10.45198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.816380000000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>311.217</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>242060.53072</v>
+        <v>225812.84493</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>295987.67675</v>
+        <v>271651.08078</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>343847.15705</v>
+        <v>325768.8846</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>400875.09719</v>
+        <v>382583.1806</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>384635.24528</v>
+        <v>348309.0436900001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>387522.4544700001</v>
+        <v>380681.61806</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>507020.91341</v>
+        <v>491366.98216</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>658241.30603</v>
+        <v>647564.58062</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>795596.0631799999</v>
+        <v>781134.9134600001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>593290.11849</v>
+        <v>611920.21413</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>834018.76651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>805265.61219</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1149026.922</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>163570.42047</v>
+        <v>168354.26215</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>187682.62642</v>
+        <v>186322.17311</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>199587.5749</v>
+        <v>198807.2469</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>241398.16077</v>
+        <v>236233.53004</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>233106.17449</v>
+        <v>221483.1066</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>245903.57975</v>
+        <v>252025.75205</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>332143.24263</v>
+        <v>317794.31533</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>445178.99486</v>
+        <v>435534.52756</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>556067.4079000001</v>
+        <v>537342.7901900001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>399541.35955</v>
+        <v>406799.46992</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>496278.41847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>472815.98957</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>704985.7169999999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5763.33748</v>
+        <v>5756.33748</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>7038.56559</v>
@@ -1349,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>416.43471</v>
+        <v>0</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>0</v>
@@ -1358,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>291.2974</v>
+        <v>80.81999999999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1125.43949</v>
+        <v>0</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>7386.11282</v>
@@ -1372,89 +1328,104 @@
       <c r="M15" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>17798.42421</v>
+        <v>15191.85788</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>16370.13056</v>
+        <v>13270.37829</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>14709.51077</v>
+        <v>11686.37233</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>11029.60242</v>
+        <v>8605.041660000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5169.27025</v>
+        <v>164.20443</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>187.63828</v>
+        <v>3828.12591</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1891.56977</v>
+        <v>99.07467</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>27684.44995</v>
+        <v>25648.42281</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>9115.68216</v>
+        <v>5519.54087</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>496.5998</v>
+        <v>21305.75541</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>12269.17159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12323.58711</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>9859.373</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>140008.65878</v>
+        <v>147406.06679</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>164273.93027</v>
+        <v>166013.22923</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>184878.06413</v>
+        <v>187120.87457</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>228718.81161</v>
+        <v>227168.70384</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>227936.90424</v>
+        <v>221318.90217</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>245325.46762</v>
+        <v>247541.72343</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>329553.6045499999</v>
+        <v>317311.53943</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>415699.00275</v>
+        <v>409329.0020800001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>538416.33162</v>
+        <v>523831.4778</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>397010.56991</v>
+        <v>385493.71451</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>481690.5927999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>460448.57424</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>695126.344</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1466,112 +1437,127 @@
         <v>0</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1233.31203</v>
+        <v>459.78454</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>390.47385</v>
+        <v>655.90271</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>406.77091</v>
+        <v>302.88123</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>670.10267</v>
+        <v>557.10267</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1149.2813</v>
+        <v>605.6587</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2034.18984</v>
+        <v>0</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2318.65408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>43.82822</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>78490.11025</v>
+        <v>57458.58278</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>108305.05033</v>
+        <v>85328.90766999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>144259.58215</v>
+        <v>126961.6377</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>159476.93642</v>
+        <v>146349.65056</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>151529.07079</v>
+        <v>126825.93709</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>141618.87472</v>
+        <v>128655.86601</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>174877.67078</v>
+        <v>173572.66683</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>213062.31117</v>
+        <v>212030.05306</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>239528.65528</v>
+        <v>243792.12327</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>193748.75894</v>
+        <v>205120.74421</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>337740.34804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>332449.62262</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>444041.205</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>53226.73929</v>
+        <v>40889.10782</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>70216.25383</v>
+        <v>60114.66296</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>78952.2356</v>
+        <v>68932.73285</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>95244.98422</v>
+        <v>82327.06105000002</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>96533.42141</v>
+        <v>78352.58622</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>85432.158</v>
+        <v>73856.14442</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>102172.34914</v>
+        <v>90770.96176999999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>131959.88538</v>
+        <v>125226.37293</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>142470.05534</v>
+        <v>135905.13253</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>125572.06294</v>
+        <v>123220.52435</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>246204.30992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>223897.60945</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>308572.599</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>47669.44565</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>59052.984</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>8979.05219</v>
+        <v>8739.247949999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>11359.47127</v>
+        <v>11079.10355</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>14527.52985</v>
+        <v>14763.13581</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>18259.86049</v>
+        <v>18469.47644</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>18558.14556</v>
+        <v>18731.97777</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>15316.91166</v>
+        <v>15830.92039</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>14240.77552</v>
+        <v>19019.19984</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>26519.0466</v>
+        <v>30442.09087</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>33521.06716</v>
+        <v>32963.47045</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>34158.38236</v>
+        <v>35232.50739</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>55579.44089</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>56568.1288</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>60696.022</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>44247.6871</v>
+        <v>32149.85987</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>58856.78256</v>
+        <v>49035.55940999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>64424.70575</v>
+        <v>54169.59704</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>76985.12372999999</v>
+        <v>63857.58461</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>77975.27584999999</v>
+        <v>59620.60845</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>70115.24634</v>
+        <v>58025.22403</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>87931.57362000001</v>
+        <v>71751.76193000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>105440.83878</v>
+        <v>94784.28206</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>108948.98818</v>
+        <v>102941.66208</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>90996.79396000001</v>
+        <v>87571.13034</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>142955.42338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>119660.035</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>188823.593</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>25263.37096</v>
+        <v>16569.47496</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>38088.7965</v>
+        <v>25214.24471</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>65307.34654999999</v>
+        <v>58028.90485</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>64231.9522</v>
+        <v>64022.58951000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>54995.64938</v>
+        <v>48473.35086999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>56186.71672</v>
+        <v>54799.72159</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>72705.32163999999</v>
+        <v>82801.70506000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>81102.42578999999</v>
+        <v>86803.68012999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>97058.59994</v>
+        <v>107886.99074</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>68176.696</v>
+        <v>81900.21986</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>91536.03812000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>108552.01317</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>135468.606</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>19920.22941</v>
+        <v>12533.5059</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>17649.16699</v>
+        <v>17614.8957</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>24872.22902</v>
+        <v>26287.92175</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>24753.79781</v>
+        <v>16519.4383</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>22326.77969</v>
+        <v>48222.84320999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>23539.19432</v>
+        <v>93192.03823000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>35907.01916</v>
+        <v>47292.2008</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>37434.6174</v>
+        <v>40073.03757</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>32617.07749</v>
+        <v>52037.88982</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>76324.27279999999</v>
+        <v>81270.32105</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>68613.85703</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>75456.80985999999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>108412.556</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1778,22 +1789,22 @@
         <v>13.10552</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1468.93537</v>
+        <v>801.97789</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>245.87695</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1193.47014</v>
+        <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1454.08586</v>
+        <v>20.95627</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2156.93625</v>
+        <v>22.70311</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3157.56555</v>
+        <v>26.27206</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>14.37067</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>25.5067</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>4.53706</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
@@ -1823,16 +1839,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>184.85734</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>3556.41111</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>934.35357</v>
+        <v>2.49999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>62.49875</v>
+        <v>14858.19875</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>29.5897</v>
@@ -1840,56 +1856,66 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4650.53368</v>
+        <v>1313.80422</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4046.21162</v>
+        <v>3116.58174</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4380.65355</v>
+        <v>4307.6308</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5743.725489999999</v>
+        <v>1943.02893</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3997.59295</v>
+        <v>653.31994</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3806.52421</v>
+        <v>831.00806</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4466.92743</v>
+        <v>2091.44032</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4428.58093</v>
+        <v>3404.58363</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>5290.62349</v>
+        <v>3649.16196</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>7925.60308</v>
+        <v>10673.43476</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>16583.93576</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>25468.32487</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>24189.098</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>3.67719</v>
+        <v>0</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>90.87703</v>
+        <v>46.61017</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>64.52807</v>
@@ -1898,16 +1924,16 @@
         <v>169.98131</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1.51129</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>0.009310000000000001</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>0.6922999999999999</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>0</v>
@@ -1918,35 +1944,40 @@
       <c r="M29" s="48" t="n">
         <v>0.24999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>206.17557</v>
+        <v>204.59774</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>180.18168</v>
+        <v>176.44168</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>59.36337</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>84.38517</v>
+        <v>87.75196</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>528.24897</v>
+        <v>308.6075300000001</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>126.58845</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1180.74102</v>
+        <v>1237.9122</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>432.84993</v>
+        <v>421.56953</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>893.29093</v>
@@ -1957,95 +1988,110 @@
       <c r="M30" s="48" t="n">
         <v>2470.59616</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>975.404</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>342.29163</v>
+        <v>109.73151</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>689.2849199999999</v>
+        <v>69.80319</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>447.62336</v>
+        <v>93.74652999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3572.1814</v>
+        <v>430.39951</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>113.56006</v>
+        <v>96.94462</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>324.86743</v>
+        <v>164.04054</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>724.7469100000001</v>
+        <v>264.20974</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1607.55256</v>
+        <v>1233.45748</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>675.68889</v>
+        <v>628.923</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1000.40251</v>
+        <v>725.76784</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1434.98352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1375.77176</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1313.792</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6111.26532</v>
+        <v>5465.94513</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5358.6765</v>
+        <v>6798.70753</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>15780.02237</v>
+        <v>18138.38749</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>8862.624129999998</v>
+        <v>8861.08785</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>13004.11802</v>
+        <v>43941.8374</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>13830.39153</v>
+        <v>88080.92324</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>19123.59098</v>
+        <v>38933.44084</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>21299.82706</v>
+        <v>31004.83995</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>15284.51716</v>
+        <v>27980.24926</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>56940.03213</v>
+        <v>62250.7112</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>24812.43247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>28992.13306</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>65822.632</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0</v>
+        <v>718.1935</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2102,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>934.5893599999999</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>1110.64567</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,155 +2164,175 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8606.28602</v>
+        <v>5439.427299999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7279.39818</v>
+        <v>6688.557890000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4126.93266</v>
+        <v>3611.15985</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4851.964940000001</v>
+        <v>4225.210849999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4435.87145</v>
+        <v>2976.25677</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4072.48591</v>
+        <v>3989.47794</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5400.51585</v>
+        <v>4744.24143</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5639.235439999999</v>
+        <v>3983.38388</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>6142.247050000001</v>
+        <v>4001.79386</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>9231.245419999999</v>
+        <v>6393.41759</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>23286.15243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>17124.22732</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>16111.51</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>8676.058939999999</v>
+        <v>7025.14075</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7555.37127</v>
+        <v>8386.392199999998</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>13970.2238</v>
+        <v>15896.51285</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>12567.87</v>
+        <v>11906.25765</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>16375.04391</v>
+        <v>49300.3653</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>154388.07443</v>
+        <v>99343.1384</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>19038.82185</v>
+        <v>41816.80464</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>19449.21759</v>
+        <v>28356.27877</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>19594.97442</v>
+        <v>31770.50719</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>61104.54219</v>
+        <v>44247.60878</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>26477.43619</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>28624.25643</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>59967.473</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>0.05723</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>0</v>
+        <v>44.49386</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>0</v>
+        <v>56.53559</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>0</v>
+        <v>199.84023</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>57.12998</v>
+        <v>356.29401</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2.19674</v>
+        <v>288.61452</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4.24412</v>
+        <v>367.97574</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>0.54</v>
+        <v>205.38625</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>12.43713</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>157.31892</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>58.315</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>754.3647099999999</v>
+        <v>633.81479</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>753.06789</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>443.18908</v>
+        <v>436.54115</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1341.28531</v>
+        <v>1326.12684</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1462.34632</v>
+        <v>1408.85278</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2534.59528</v>
+        <v>2420.21314</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1875.31305</v>
+        <v>2166.37387</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>2597.15125</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1820.55036</v>
+        <v>4479.250859999999</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>2467.22741</v>
@@ -2269,29 +2340,34 @@
       <c r="M38" s="48" t="n">
         <v>2094.96562</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>8793.721</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>24.90961</v>
+        <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>114.145</v>
+        <v>19.28912</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>176.80404</v>
+        <v>5.653160000000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>35.53881</v>
+        <v>8.636010000000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>113.33421</v>
+        <v>7.00605</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>132824.1749</v>
+        <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>1.02519</v>
@@ -2303,61 +2379,71 @@
         <v>7.4495</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>171.00669</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>26.74097</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>139.169</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>6592.77036</v>
+        <v>4698.80514</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4925.93447</v>
+        <v>5207.79313</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>11700.78953</v>
+        <v>13696.51518</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>9135.04495</v>
+        <v>8001.152480000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>11879.24161</v>
+        <v>46436.52392</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>15812.44466</v>
+        <v>94840.79883000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>13378.90751</v>
+        <v>38329.17242</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>15233.28166</v>
+        <v>25055.91887</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>16419.45805</v>
+        <v>26420.10986</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>56760.45375</v>
+        <v>40783.88569</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>14758.85394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>16909.31074</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>46697.142</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>387.78375</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>330.40975</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2399,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0</v>
+        <v>126.9129</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2425,137 +2516,157 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1304.01426</v>
+        <v>1304.73707</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1761.62391</v>
+        <v>2075.83231</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1649.38392</v>
+        <v>1630.83323</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2056.00093</v>
+        <v>2525.84846</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2920.12177</v>
+        <v>1391.44696</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3216.85959</v>
+        <v>1882.2862</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3726.44612</v>
+        <v>963.93915</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1616.58794</v>
+        <v>414.59413</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1333.85756</v>
+        <v>486.3064</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1705.31434</v>
+        <v>791.10943</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9584.438529999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9435.920179999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4279.126</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>5255.18142</v>
+        <v>4353.41272</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5413.608099999999</v>
+        <v>5144.99186</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4484.40012</v>
+        <v>4195.414849999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4880.87069</v>
+        <v>4515.142360000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5424.95155</v>
+        <v>7019.447960000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>10202.53995</v>
+        <v>4104.7711</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>8023.989890000001</v>
+        <v>5930.876279999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>8666.628709999999</v>
+        <v>6359.12026</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9086.159119999998</v>
+        <v>7625.53599</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>10037.80687</v>
+        <v>7724.795480000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>8493.19263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5406.17665</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>8439.109</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3498.40637</v>
+        <v>3951.959</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3933.66364</v>
+        <v>4834.21875</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3535.55421</v>
+        <v>3690.19543</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4484.13887</v>
+        <v>4118.41054</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5304.71848</v>
+        <v>6899.21489</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>10110.38778</v>
+        <v>4012.61893</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>7985.256</v>
+        <v>5892.14239</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>8603.32451</v>
+        <v>6295.816059999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>9021.744140000001</v>
+        <v>7561.12101</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>10008.90885</v>
+        <v>7695.89746</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>8493.19263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5406.17665</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>8439.109</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1756.77505</v>
+        <v>401.45372</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1479.94446</v>
+        <v>310.77311</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>948.84591</v>
+        <v>505.21942</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>396.73182</v>
@@ -2581,95 +2692,110 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>31252.36001</v>
+        <v>17724.42739</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>42768.98411999999</v>
+        <v>29297.75635</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>71724.95165</v>
+        <v>64224.89890000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>71537.00932000001</v>
+        <v>64120.62779999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>55522.43361</v>
+        <v>40376.38082</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-84864.70334000001</v>
+        <v>44543.85032</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>81549.52906</v>
+        <v>82346.22494</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>90421.19689000001</v>
+        <v>92161.31867000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>100994.54389</v>
+        <v>120528.83738</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>73358.61973999999</v>
+        <v>111198.13665</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>125179.26633</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>149978.38995</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>175474.58</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5996.13399</v>
+        <v>5751.28576</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3973.01334</v>
+        <v>3764.57606</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2423.19904</v>
+        <v>2205.96209</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6382.214940000001</v>
+        <v>4121.24396</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4888.61677</v>
+        <v>3432.72037</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5541.80568</v>
+        <v>5013.776180000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>11277.93</v>
+        <v>7599.282230000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3684.93741</v>
+        <v>2870.90131</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>6167.86425</v>
+        <v>3931.39191</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2305.25584</v>
+        <v>2115.27611</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4971.8008</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4563.93362</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>7216.281</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>42.2709</v>
+        <v>24.0969</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>11.23684</v>
+        <v>10.43628</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>0.60448</v>
@@ -2678,19 +2804,19 @@
         <v>25.84259</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>317.1730899999999</v>
+        <v>40.17173</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>10.8699</v>
+        <v>10.37051</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5.72411</v>
+        <v>4.23241</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>44.08174</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>11.78602</v>
+        <v>8.40714</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>158.1943</v>
@@ -2698,107 +2824,122 @@
       <c r="M49" s="48" t="n">
         <v>108.54273</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>32.364</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>5953.86309</v>
+        <v>5727.18886</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3961.7765</v>
+        <v>3754.13978</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2422.59456</v>
+        <v>2205.35761</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6356.37235</v>
+        <v>4095.40137</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4571.443679999999</v>
+        <v>3392.54864</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>5530.935779999999</v>
+        <v>5003.40567</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>11272.20589</v>
+        <v>7595.04982</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3640.85567</v>
+        <v>2826.81957</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6156.07823</v>
+        <v>3922.98477</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2147.06154</v>
+        <v>1957.08181</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4863.25807</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4455.390890000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7183.917</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1548.7351</v>
+        <v>1439.38986</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5136.25379</v>
+        <v>4281.77061</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>10339.5306</v>
+        <v>8641.743189999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2441.06119</v>
+        <v>1559.7689</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2151.6156</v>
+        <v>1479.62948</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>6990.65365</v>
+        <v>6560.28627</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5780.9398</v>
+        <v>1711.13941</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>24583.8819</v>
+        <v>14884.62959</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>3310.4827</v>
+        <v>3287.36225</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>12456.65124</v>
+        <v>12935.115</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3523.71049</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5329.404189999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3817.155</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>73.22033999999999</v>
+        <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>303.79238</v>
+        <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>133.69323</v>
+        <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>103.4</v>
+        <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>156.87723</v>
+        <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>148.80607</v>
+        <v>148.62041</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>23.25375</v>
+        <v>11.12669</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>13.85247</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>33.89841000000001</v>
+        <v>88.7307</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>639.58853</v>
+        <v>644.8560799999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>20.51626</v>
+        <v>17.77435</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>32.20072</v>
+        <v>248.67328</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>356.37911</v>
+        <v>354.36174</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>211.51347</v>
+        <v>168.66037</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>602.1113099999999</v>
+        <v>602.1088</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>12.72487</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>7.313</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1399.92903</v>
+        <v>1290.76945</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5039.7797</v>
+        <v>4270.64392</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>10021.88575</v>
+        <v>8627.890720000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2273.46955</v>
+        <v>1471.0382</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1408.62707</v>
+        <v>834.7733999999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>6813.26016</v>
+        <v>6542.51192</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5748.73908</v>
+        <v>1462.46613</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>24227.50279</v>
+        <v>14530.26785</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3098.96923</v>
+        <v>3118.70188</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>11854.53993</v>
+        <v>12333.0062</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3510.98562</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>5316.67932</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3809.842</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>35699.7589</v>
+        <v>22036.32329</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>41605.74367</v>
+        <v>28780.5618</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>63808.62009</v>
+        <v>57789.1178</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>75478.16307</v>
+        <v>66682.10286</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>58259.43478</v>
+        <v>42329.47171</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-86313.55131</v>
+        <v>42997.34022999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>87046.51925999999</v>
+        <v>88234.36775999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>69522.25240000001</v>
+        <v>80147.59039</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>103851.92544</v>
+        <v>121172.86704</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>63207.22434</v>
+        <v>100378.29776</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>126627.35664</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>149212.91938</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>178873.706</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>8081.92413</v>
+        <v>5506.501119999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>11018.92788</v>
+        <v>8209.16166</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>14542.64418</v>
+        <v>12831.21174</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>14752.89508</v>
+        <v>13157.39865</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>12711.01428</v>
+        <v>9024.47928</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>11192.28036</v>
+        <v>9535.848820000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>17925.72205</v>
+        <v>18615.89852</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>18998.9277</v>
+        <v>19246.98273</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>23192.08126</v>
+        <v>24606.49746</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>16502.75912</v>
+        <v>22197.72121</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>27937.077</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>33395.61799</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>34376.731</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>27617.83477</v>
+        <v>16529.82217</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>30586.81579</v>
+        <v>20571.40014</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>49265.97590999999</v>
+        <v>44957.90606</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>60725.26799</v>
+        <v>53524.70421</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>45548.4205</v>
+        <v>33304.99243</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-97505.83167</v>
+        <v>33461.49141</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>69120.79721</v>
+        <v>69618.46923999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>50523.3247</v>
+        <v>60900.60765999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>80659.84418</v>
+        <v>96566.36958</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>46704.46522</v>
+        <v>78180.57655</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>98690.27963999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>115817.30139</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>144496.975</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>26</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>31</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>34</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>27</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>28</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>35</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>40</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>45</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>53</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>59</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>47</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>47</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>65</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>70</v>
-      </c>
       <c r="L59" s="35" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>